--- a/DIJKSTRA.xlsx
+++ b/DIJKSTRA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3120" yWindow="1740" windowWidth="17280" windowHeight="8880" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="OPPTY" sheetId="1" state="visible" r:id="rId1"/>
@@ -510,15 +510,11 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="12.44140625" customWidth="1" min="2" max="2"/>
-    <col width="14.5546875" customWidth="1" min="3" max="3"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -528,12 +524,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NODE_ASAL</t>
+          <t>NODE ASAL</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>NODE_TUJUAN</t>
+          <t>NODE TUJUAN</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -605,10 +601,8 @@
           <t>E</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
+      <c r="C5" s="4" t="n">
+        <v>24</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>55</v>
@@ -618,10 +612,8 @@
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
+      <c r="B6" s="4" t="n">
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
@@ -753,17 +745,18 @@
   </sheetPr>
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="14.21875" customWidth="1" min="1" max="1"/>
-    <col width="13.77734375" customWidth="1" min="2" max="2"/>
-    <col width="11.109375" customWidth="1" min="4" max="4"/>
+    <col width="15.21875" customWidth="1" min="2" max="2"/>
+    <col width="13.44140625" customWidth="1" min="4" max="4"/>
     <col width="12.6640625" customWidth="1" min="5" max="5"/>
-    <col width="13.88671875" customWidth="1" min="6" max="6"/>
+    <col width="15.77734375" customWidth="1" min="6" max="6"/>
+    <col width="7.109375" customWidth="1" min="7" max="7"/>
     <col width="16.5546875" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
@@ -885,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>60</v>
@@ -894,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -952,7 +945,7 @@
         <v>50</v>
       </c>
       <c r="L3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -961,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1019,7 +1012,7 @@
         <v>50</v>
       </c>
       <c r="L4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1028,7 +1021,7 @@
         <v>65</v>
       </c>
       <c r="O4" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1086,7 +1079,7 @@
         <v>50</v>
       </c>
       <c r="L5" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1095,7 +1088,7 @@
         <v>65</v>
       </c>
       <c r="O5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>75</v>
@@ -1153,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1162,7 +1155,7 @@
         <v>65</v>
       </c>
       <c r="O6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>75</v>
@@ -1220,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1229,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>75</v>
@@ -1287,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1296,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1319,7 +1312,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -1354,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1363,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1381,12 +1374,12 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -1421,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1430,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1448,7 +1441,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -1488,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>60</v>
@@ -1497,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1520,7 +1513,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
